--- a/data/templates/07.VD.xlsx
+++ b/data/templates/07.VD.xlsx
@@ -1,92 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2048B7A8-AAB1-4FC1-AD10-47FE55A984FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DFB1A6-0301-4FD9-BF5F-9A28F91F0128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21915" yWindow="900" windowWidth="20625" windowHeight="14490" xr2:uid="{5727D201-909C-4737-94BB-43A538AD22EF}"/>
+    <workbookView xWindow="-17100" yWindow="390" windowWidth="19140" windowHeight="15210" xr2:uid="{5727D201-909C-4737-94BB-43A538AD22EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="진공 건조 작업 일지" sheetId="1" r:id="rId1"/>
+    <sheet name="원본" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="anodeMagazineLot1">'진공 건조 작업 일지'!$C$16</definedName>
-    <definedName name="anodeMagazineLot2">'진공 건조 작업 일지'!$E$16</definedName>
-    <definedName name="anodeMagazineLot3">'진공 건조 작업 일지'!$G$16</definedName>
-    <definedName name="anodeMagazineLot4">'진공 건조 작업 일지'!$I$16</definedName>
-    <definedName name="anodeMagazineLot5">'진공 건조 작업 일지'!$K$16</definedName>
-    <definedName name="approver">'진공 건조 작업 일지'!$L$5</definedName>
-    <definedName name="cathodeMagazineLot1">'진공 건조 작업 일지'!$C$14</definedName>
-    <definedName name="cathodeMagazineLot2">'진공 건조 작업 일지'!$E$14</definedName>
-    <definedName name="cathodeMagazineLot3">'진공 건조 작업 일지'!$G$14</definedName>
-    <definedName name="cathodeMagazineLot4">'진공 건조 작업 일지'!$I$14</definedName>
-    <definedName name="cathodeMagazineLot5">'진공 건조 작업 일지'!$K$14</definedName>
-    <definedName name="cleanCheck">'진공 건조 작업 일지'!$G$44</definedName>
-    <definedName name="equipmentCheckResult">'진공 건조 작업 일지'!$C$41</definedName>
-    <definedName name="equipmentIssue">'진공 건조 작업 일지'!$K$41</definedName>
-    <definedName name="jigNumber">'진공 건조 작업 일지'!$G$41</definedName>
-    <definedName name="line">'진공 건조 작업 일지'!$C$9</definedName>
-    <definedName name="lowerInputOutputTime1">'진공 건조 작업 일지'!$C$33</definedName>
-    <definedName name="lowerInputOutputTime2">'진공 건조 작업 일지'!$E$33</definedName>
-    <definedName name="lowerInputOutputTime3">'진공 건조 작업 일지'!$G$33</definedName>
-    <definedName name="lowerInputOutputTime4">'진공 건조 작업 일지'!$I$33</definedName>
-    <definedName name="lowerInputOutputTime5">'진공 건조 작업 일지'!$K$33</definedName>
-    <definedName name="lowerInputQuantity1">'진공 건조 작업 일지'!$C$31</definedName>
-    <definedName name="lowerInputQuantity2">'진공 건조 작업 일지'!$E$31</definedName>
-    <definedName name="lowerInputQuantity3">'진공 건조 작업 일지'!$G$31</definedName>
-    <definedName name="lowerInputQuantity4">'진공 건조 작업 일지'!$I$31</definedName>
-    <definedName name="lowerInputQuantity5">'진공 건조 작업 일지'!$K$31</definedName>
-    <definedName name="lowerLot1">'진공 건조 작업 일지'!$C$29</definedName>
-    <definedName name="lowerLot2">'진공 건조 작업 일지'!$E$29</definedName>
-    <definedName name="lowerLot3">'진공 건조 작업 일지'!$G$29</definedName>
-    <definedName name="lowerLot4">'진공 건조 작업 일지'!$I$29</definedName>
-    <definedName name="lowerLot5">'진공 건조 작업 일지'!$K$29</definedName>
-    <definedName name="lowerMoistureMeasurement1">'진공 건조 작업 일지'!$C$35</definedName>
-    <definedName name="lowerMoistureMeasurement2">'진공 건조 작업 일지'!$E$35</definedName>
-    <definedName name="lowerMoistureMeasurement3">'진공 건조 작업 일지'!$G$35</definedName>
-    <definedName name="lowerMoistureMeasurement4">'진공 건조 작업 일지'!$I$35</definedName>
-    <definedName name="lowerMoistureMeasurement5">'진공 건조 작업 일지'!$K$35</definedName>
-    <definedName name="lowerSetTemperature">'진공 건조 작업 일지'!$H$39</definedName>
-    <definedName name="lowerTimerTime">'진공 건조 작업 일지'!$L$39</definedName>
-    <definedName name="manufactureDate">'진공 건조 작업 일지'!$C$7</definedName>
-    <definedName name="plant">'진공 건조 작업 일지'!$G$9</definedName>
-    <definedName name="productionId">'진공 건조 작업 일지'!$G$7</definedName>
-    <definedName name="remark">'진공 건조 작업 일지'!$A$47</definedName>
-    <definedName name="reviewer">'진공 건조 작업 일지'!$K$5</definedName>
-    <definedName name="safety">'진공 건조 작업 일지'!$K$44</definedName>
-    <definedName name="shift">'진공 건조 작업 일지'!$K$9</definedName>
-    <definedName name="tempHumi">'진공 건조 작업 일지'!$C$44</definedName>
-    <definedName name="upperInputOutputTime1">'진공 건조 작업 일지'!$C$25</definedName>
-    <definedName name="upperInputOutputTime2">'진공 건조 작업 일지'!$E$25</definedName>
-    <definedName name="upperInputOutputTime3">'진공 건조 작업 일지'!$G$25</definedName>
-    <definedName name="upperInputOutputTime4">'진공 건조 작업 일지'!$I$25</definedName>
-    <definedName name="upperInputOutputTime5">'진공 건조 작업 일지'!$K$25</definedName>
-    <definedName name="upperInputQuantity1">'진공 건조 작업 일지'!$C$23</definedName>
-    <definedName name="upperInputQuantity2">'진공 건조 작업 일지'!$E$23</definedName>
-    <definedName name="upperInputQuantity3">'진공 건조 작업 일지'!$G$23</definedName>
-    <definedName name="upperInputQuantity4">'진공 건조 작업 일지'!$I$23</definedName>
-    <definedName name="upperInputQuantity5">'진공 건조 작업 일지'!$K$23</definedName>
-    <definedName name="upperLot1">'진공 건조 작업 일지'!$C$21</definedName>
-    <definedName name="upperLot2">'진공 건조 작업 일지'!$E$21</definedName>
-    <definedName name="upperLot3">'진공 건조 작업 일지'!$G$21</definedName>
-    <definedName name="upperLot4">'진공 건조 작업 일지'!$I$21</definedName>
-    <definedName name="upperLot5">'진공 건조 작업 일지'!$K$21</definedName>
-    <definedName name="upperMoistureMeasurement1">'진공 건조 작업 일지'!$C$27</definedName>
-    <definedName name="upperMoistureMeasurement2">'진공 건조 작업 일지'!$E$27</definedName>
-    <definedName name="upperMoistureMeasurement3">'진공 건조 작업 일지'!$G$27</definedName>
-    <definedName name="upperMoistureMeasurement4">'진공 건조 작업 일지'!$I$27</definedName>
-    <definedName name="upperMoistureMeasurement5">'진공 건조 작업 일지'!$K$27</definedName>
-    <definedName name="upperSetTemperature">'진공 건조 작업 일지'!$G$39</definedName>
-    <definedName name="upperTimerTime">'진공 건조 작업 일지'!$K$39</definedName>
-    <definedName name="vacuumDegreeSetting">'진공 건조 작업 일지'!$C$38</definedName>
-    <definedName name="worker">'진공 건조 작업 일지'!$K$7</definedName>
-    <definedName name="writer">'진공 건조 작업 일지'!$J$5</definedName>
+    <definedName name="anodeMagazineLot1">원본!$C$16</definedName>
+    <definedName name="anodeMagazineLot2">원본!$E$16</definedName>
+    <definedName name="anodeMagazineLot3">원본!$G$16</definedName>
+    <definedName name="anodeMagazineLot4">원본!$I$16</definedName>
+    <definedName name="anodeMagazineLot5">원본!$K$16</definedName>
+    <definedName name="approver">원본!$L$5</definedName>
+    <definedName name="cathodeMagazineLot1">원본!$C$14</definedName>
+    <definedName name="cathodeMagazineLot2">원본!$E$14</definedName>
+    <definedName name="cathodeMagazineLot3">원본!$G$14</definedName>
+    <definedName name="cathodeMagazineLot4">원본!$I$14</definedName>
+    <definedName name="cathodeMagazineLot5">원본!$K$14</definedName>
+    <definedName name="cleanCheck">원본!$G$44</definedName>
+    <definedName name="equipmentCheckResult">원본!$C$41</definedName>
+    <definedName name="equipmentIssue">원본!$K$41</definedName>
+    <definedName name="jigNumber">원본!$G$41</definedName>
+    <definedName name="line">원본!$C$9</definedName>
+    <definedName name="lowerInputOutputTime1">원본!$C$33</definedName>
+    <definedName name="lowerInputOutputTime2">원본!$E$33</definedName>
+    <definedName name="lowerInputOutputTime3">원본!$G$33</definedName>
+    <definedName name="lowerInputOutputTime4">원본!$I$33</definedName>
+    <definedName name="lowerInputOutputTime5">원본!$K$33</definedName>
+    <definedName name="lowerInputQuantity1">원본!$C$31</definedName>
+    <definedName name="lowerInputQuantity2">원본!$E$31</definedName>
+    <definedName name="lowerInputQuantity3">원본!$G$31</definedName>
+    <definedName name="lowerInputQuantity4">원본!$I$31</definedName>
+    <definedName name="lowerInputQuantity5">원본!$K$31</definedName>
+    <definedName name="lowerLot1">원본!$C$29</definedName>
+    <definedName name="lowerLot2">원본!$E$29</definedName>
+    <definedName name="lowerLot3">원본!$G$29</definedName>
+    <definedName name="lowerLot4">원본!$I$29</definedName>
+    <definedName name="lowerLot5">원본!$K$29</definedName>
+    <definedName name="lowerMoistureMeasurement1">원본!$C$35</definedName>
+    <definedName name="lowerMoistureMeasurement2">원본!$E$35</definedName>
+    <definedName name="lowerMoistureMeasurement3">원본!$G$35</definedName>
+    <definedName name="lowerMoistureMeasurement4">원본!$I$35</definedName>
+    <definedName name="lowerMoistureMeasurement5">원본!$K$35</definedName>
+    <definedName name="lowerSetTemperature">원본!$H$39</definedName>
+    <definedName name="lowerTimerTime">원본!$L$39</definedName>
+    <definedName name="manufactureDate">원본!$C$7</definedName>
+    <definedName name="plant">원본!$G$9</definedName>
+    <definedName name="productionId">원본!$G$7</definedName>
+    <definedName name="remark">원본!$A$47</definedName>
+    <definedName name="reviewer">원본!$K$5</definedName>
+    <definedName name="safety">원본!$K$44</definedName>
+    <definedName name="shift">원본!$K$9</definedName>
+    <definedName name="tempHumi">원본!$C$44</definedName>
+    <definedName name="upperInputOutputTime1">원본!$C$25</definedName>
+    <definedName name="upperInputOutputTime2">원본!$E$25</definedName>
+    <definedName name="upperInputOutputTime3">원본!$G$25</definedName>
+    <definedName name="upperInputOutputTime4">원본!$I$25</definedName>
+    <definedName name="upperInputOutputTime5">원본!$K$25</definedName>
+    <definedName name="upperInputQuantity1">원본!$C$23</definedName>
+    <definedName name="upperInputQuantity2">원본!$E$23</definedName>
+    <definedName name="upperInputQuantity3">원본!$G$23</definedName>
+    <definedName name="upperInputQuantity4">원본!$I$23</definedName>
+    <definedName name="upperInputQuantity5">원본!$K$23</definedName>
+    <definedName name="upperLot1">원본!$C$21</definedName>
+    <definedName name="upperLot2">원본!$E$21</definedName>
+    <definedName name="upperLot3">원본!$G$21</definedName>
+    <definedName name="upperLot4">원본!$I$21</definedName>
+    <definedName name="upperLot5">원본!$K$21</definedName>
+    <definedName name="upperMoistureMeasurement1">원본!$C$27</definedName>
+    <definedName name="upperMoistureMeasurement2">원본!$E$27</definedName>
+    <definedName name="upperMoistureMeasurement3">원본!$G$27</definedName>
+    <definedName name="upperMoistureMeasurement4">원본!$I$27</definedName>
+    <definedName name="upperMoistureMeasurement5">원본!$K$27</definedName>
+    <definedName name="upperSetTemperature">원본!$G$39</definedName>
+    <definedName name="upperTimerTime">원본!$K$39</definedName>
+    <definedName name="vacuumDegreeSetting">원본!$C$38</definedName>
+    <definedName name="worker">원본!$K$7</definedName>
+    <definedName name="writer">원본!$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -600,6 +600,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +615,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,73 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1056,17 +1056,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1078,596 +1078,596 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="38" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="38" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="40" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="27"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1676,342 +1676,245 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="19" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="14"/>
+      <c r="K41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L41" s="20"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="17"/>
+      <c r="I44" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20" t="s">
+      <c r="J44" s="14"/>
+      <c r="K44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="20"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="15"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="A47:L53"/>
     <mergeCell ref="A44:B45"/>
@@ -2027,6 +1930,103 @@
     <mergeCell ref="I41:J42"/>
     <mergeCell ref="K41:L42"/>
     <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
